--- a/biology/Médecine/Muscle_tibial_antérieur/Muscle_tibial_antérieur.xlsx
+++ b/biology/Médecine/Muscle_tibial_antérieur/Muscle_tibial_antérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur (ou muscle jambier antérieur) est un muscle du membre inférieur situé dans la partie antérieure de la jambe. Il est contenu dans la loge crurale antérieure.
 de la loge antérieure de la jambe qui va du bord externe du tibia au bord interne du pied.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur est un muscle triangulaire. C'est le muscle le plus volumineux de la loge crurale antérieure. Il relie le tibia au tarse et au métatarse.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur se fixe sur le tibia au niveau du condyle latéral et sur les 2/3 supérieurs de la face externe du tibia, sur le tiers supérieur de la membrane interosseuse et sur la face profonde du tiers supérieur de l'aponévrose jambière superficielle (fascia crural).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur descend le long de la jambe, se finit par un tendon qui longe le versant interne de la crête tibiale, puis, après s'être entouré d'une gaine synoviale traverse le faisceau supérieur du rétinaculum des muscles extenseurs du pied et glisse sous le faisceau inférieur
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon du muscle tibial antérieur s'insère sur la face médiale du cunéiforme médial et sur la base du premier métatarsien.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur est innervé par le nerf fibulaire profond et par un rameau du nerf fibulaire.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur est vascularisé par l'artère tibiale antérieure et la veine tibiale antérieure.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_tibial_ant%C3%A9rieur</t>
+          <t>Muscle_tibial_antérieur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tibial antérieur est fléchisseur du pied sur la jambe (flexion dorsale), adducteur et supinateur. Il participe à l'inversion mais n'est pas un inverseur pour autant. En effet les muscles inverseurs font de l'adduction, de la supination et de la flexion plantaire.
 Ses muscles antagonistes sont les muscles long fibulaire, triceps sural, plantaire et tibial postérieur.
